--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-arv-regimen.xlsx
+++ b/branches/Richard/ValueSet-vs-arv-regimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
